--- a/Optimisation data/combined/Biomarkers + Clinical C/top/RF_feature_importance/LogisticRegression_optimisation.xlsx
+++ b/Optimisation data/combined/Biomarkers + Clinical C/top/RF_feature_importance/LogisticRegression_optimisation.xlsx
@@ -157,7 +157,7 @@
     <t>{'C': 1.0, 'class_weight': None, 'dual': False, 'fit_intercept': False, 'max_iter': 10000, 'multi_class': 'auto', 'penalty': 'none', 'random_state': 10, 'tol': 0.0001, 'verbose': 0, 'warm_start': True}</t>
   </si>
   <si>
-    <t>[0.66507177 0.52631579 0.59808612 0.83732057 0.555     ]</t>
+    <t>[0.94444444 0.9        0.85       0.9        0.96666667]</t>
   </si>
 </sst>
 </file>
@@ -609,16 +609,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.009636545181274414</v>
+        <v>0.007155895233154297</v>
       </c>
       <c r="C2">
-        <v>0.003126391515397558</v>
+        <v>0.005660393169839676</v>
       </c>
       <c r="D2">
-        <v>0.002451229095458985</v>
+        <v>0.0008950233459472656</v>
       </c>
       <c r="E2">
-        <v>0.000302010053212911</v>
+        <v>0.0001229441183897994</v>
       </c>
       <c r="F2">
         <v>0.001</v>
@@ -657,37 +657,37 @@
         <v>31</v>
       </c>
       <c r="R2">
-        <v>0.4137931034482759</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="S2">
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="T2">
-        <v>0.5333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="U2">
-        <v>0.4285714285714285</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="V2">
-        <v>0.631578947368421</v>
+        <v>0.7272727272727272</v>
       </c>
       <c r="W2">
-        <v>0.5014553625442917</v>
+        <v>0.6729608111187059</v>
       </c>
       <c r="X2">
-        <v>0.0786730067182161</v>
+        <v>0.04173690492376865</v>
       </c>
       <c r="Y2">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="Z2" t="s">
         <v>47</v>
       </c>
       <c r="AA2">
-        <v>0.6363588516746411</v>
+        <v>0.9122222222222222</v>
       </c>
       <c r="AB2">
-        <v>0.1108183969750727</v>
+        <v>0.04042978977480057</v>
       </c>
     </row>
     <row r="3" spans="1:28">
@@ -695,16 +695,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.009944391250610352</v>
+        <v>0.00419464111328125</v>
       </c>
       <c r="C3">
-        <v>0.002834703699766147</v>
+        <v>0.002412508820226142</v>
       </c>
       <c r="D3">
-        <v>0.002662944793701172</v>
+        <v>0.001175308227539063</v>
       </c>
       <c r="E3">
-        <v>0.0001182805504197607</v>
+        <v>0.0006458084078894376</v>
       </c>
       <c r="F3">
         <v>0.001</v>
@@ -743,37 +743,37 @@
         <v>32</v>
       </c>
       <c r="R3">
-        <v>0.6285714285714286</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="S3">
-        <v>0.6285714285714286</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="T3">
-        <v>0.6060606060606061</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="U3">
-        <v>0.6206896551724138</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="V3">
-        <v>0.6666666666666667</v>
+        <v>0.8333333333333333</v>
       </c>
       <c r="W3">
-        <v>0.6301119570085086</v>
+        <v>0.6782638414217361</v>
       </c>
       <c r="X3">
-        <v>0.02004116018713882</v>
+        <v>0.09518025586929175</v>
       </c>
       <c r="Y3">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="Z3" t="s">
         <v>47</v>
       </c>
       <c r="AA3">
-        <v>0.6363588516746411</v>
+        <v>0.9122222222222222</v>
       </c>
       <c r="AB3">
-        <v>0.1108183969750727</v>
+        <v>0.04042978977480057</v>
       </c>
     </row>
     <row r="4" spans="1:28">
@@ -781,16 +781,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.004445505142211914</v>
+        <v>0.001540946960449219</v>
       </c>
       <c r="C4">
-        <v>0.0003605828402475423</v>
+        <v>0.0005865949165657146</v>
       </c>
       <c r="D4">
-        <v>0.002639293670654297</v>
+        <v>0.0007160186767578125</v>
       </c>
       <c r="E4">
-        <v>0.0003699424246992952</v>
+        <v>7.076549395723451E-05</v>
       </c>
       <c r="F4">
         <v>0.001</v>
@@ -826,37 +826,37 @@
         <v>33</v>
       </c>
       <c r="R4">
-        <v>0.6666666666666667</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="S4">
-        <v>0.6666666666666667</v>
+        <v>0.625</v>
       </c>
       <c r="T4">
-        <v>0.5945945945945946</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="U4">
-        <v>0.6829268292682926</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="V4">
-        <v>0.6</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="W4">
-        <v>0.6421709514392442</v>
+        <v>0.6475861857440804</v>
       </c>
       <c r="X4">
-        <v>0.03715648148714518</v>
+        <v>0.07260676119893994</v>
       </c>
       <c r="Y4">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="Z4" t="s">
         <v>47</v>
       </c>
       <c r="AA4">
-        <v>0.6363588516746411</v>
+        <v>0.9122222222222222</v>
       </c>
       <c r="AB4">
-        <v>0.1108183969750727</v>
+        <v>0.04042978977480057</v>
       </c>
     </row>
     <row r="5" spans="1:28">
@@ -864,16 +864,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.008523225784301758</v>
+        <v>0.001511669158935547</v>
       </c>
       <c r="C5">
-        <v>0.003078490200102213</v>
+        <v>2.836263331870187E-05</v>
       </c>
       <c r="D5">
-        <v>0.004260730743408203</v>
+        <v>0.0006888866424560547</v>
       </c>
       <c r="E5">
-        <v>0.003875640894224917</v>
+        <v>1.734245665784665E-05</v>
       </c>
       <c r="F5">
         <v>0.001</v>
@@ -909,37 +909,37 @@
         <v>34</v>
       </c>
       <c r="R5">
-        <v>0.7027027027027027</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="S5">
-        <v>0.6486486486486486</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="T5">
-        <v>0.6666666666666667</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="U5">
-        <v>0.7096774193548387</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="V5">
-        <v>0.7</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="W5">
-        <v>0.6855390874745714</v>
+        <v>0.655186918344813</v>
       </c>
       <c r="X5">
-        <v>0.02367884916396554</v>
+        <v>0.07833443799664203</v>
       </c>
       <c r="Y5">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="Z5" t="s">
         <v>47</v>
       </c>
       <c r="AA5">
-        <v>0.6363588516746411</v>
+        <v>0.9122222222222222</v>
       </c>
       <c r="AB5">
-        <v>0.1108183969750727</v>
+        <v>0.04042978977480057</v>
       </c>
     </row>
     <row r="6" spans="1:28">
@@ -947,16 +947,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.007415628433227539</v>
+        <v>0.00162653923034668</v>
       </c>
       <c r="C6">
-        <v>0.004539741116964999</v>
+        <v>0.0003140870800774918</v>
       </c>
       <c r="D6">
-        <v>0.002626323699951172</v>
+        <v>0.0006866455078125</v>
       </c>
       <c r="E6">
-        <v>0.0007146815792960069</v>
+        <v>3.890798367602072E-05</v>
       </c>
       <c r="F6">
         <v>0.01</v>
@@ -995,37 +995,37 @@
         <v>35</v>
       </c>
       <c r="R6">
-        <v>0.5882352941176471</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="S6">
-        <v>0.6285714285714286</v>
+        <v>0.625</v>
       </c>
       <c r="T6">
-        <v>0.6</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="U6">
-        <v>0.4615384615384616</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="V6">
-        <v>0.631578947368421</v>
+        <v>0.7272727272727272</v>
       </c>
       <c r="W6">
-        <v>0.5819848263191917</v>
+        <v>0.6729608111187059</v>
       </c>
       <c r="X6">
-        <v>0.06245130898771563</v>
+        <v>0.04173690492376865</v>
       </c>
       <c r="Y6">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="Z6" t="s">
         <v>47</v>
       </c>
       <c r="AA6">
-        <v>0.6363588516746411</v>
+        <v>0.9122222222222222</v>
       </c>
       <c r="AB6">
-        <v>0.1108183969750727</v>
+        <v>0.04042978977480057</v>
       </c>
     </row>
     <row r="7" spans="1:28">
@@ -1033,16 +1033,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.006859064102172852</v>
+        <v>0.001708412170410156</v>
       </c>
       <c r="C7">
-        <v>0.0007760185829063107</v>
+        <v>0.0001618404281541038</v>
       </c>
       <c r="D7">
-        <v>0.002623748779296875</v>
+        <v>0.000684356689453125</v>
       </c>
       <c r="E7">
-        <v>0.000174762373236887</v>
+        <v>2.59701643914751E-05</v>
       </c>
       <c r="F7">
         <v>0.01</v>
@@ -1081,37 +1081,37 @@
         <v>36</v>
       </c>
       <c r="R7">
-        <v>0.6285714285714286</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="S7">
-        <v>0.6285714285714286</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="T7">
-        <v>0.6060606060606061</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="U7">
-        <v>0.6206896551724138</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="V7">
-        <v>0.6666666666666667</v>
+        <v>0.8333333333333333</v>
       </c>
       <c r="W7">
-        <v>0.6301119570085086</v>
+        <v>0.6782638414217361</v>
       </c>
       <c r="X7">
-        <v>0.02004116018713882</v>
+        <v>0.09518025586929175</v>
       </c>
       <c r="Y7">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="Z7" t="s">
         <v>47</v>
       </c>
       <c r="AA7">
-        <v>0.6363588516746411</v>
+        <v>0.9122222222222222</v>
       </c>
       <c r="AB7">
-        <v>0.1108183969750727</v>
+        <v>0.04042978977480057</v>
       </c>
     </row>
     <row r="8" spans="1:28">
@@ -1119,16 +1119,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.005380153656005859</v>
+        <v>0.003472566604614258</v>
       </c>
       <c r="C8">
-        <v>0.0009828379146385605</v>
+        <v>0.001706026855765637</v>
       </c>
       <c r="D8">
-        <v>0.003280448913574219</v>
+        <v>0.001201486587524414</v>
       </c>
       <c r="E8">
-        <v>0.002030300652674044</v>
+        <v>0.0003982891680984998</v>
       </c>
       <c r="F8">
         <v>0.01</v>
@@ -1164,37 +1164,37 @@
         <v>37</v>
       </c>
       <c r="R8">
-        <v>0.6857142857142857</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="S8">
-        <v>0.6842105263157895</v>
+        <v>0.625</v>
       </c>
       <c r="T8">
-        <v>0.631578947368421</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="U8">
-        <v>0.6666666666666667</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="V8">
-        <v>0.6153846153846154</v>
+        <v>0.8333333333333333</v>
       </c>
       <c r="W8">
-        <v>0.6567110082899558</v>
+        <v>0.6699305080884027</v>
       </c>
       <c r="X8">
-        <v>0.02841133563720606</v>
+        <v>0.09762348657489882</v>
       </c>
       <c r="Y8">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="Z8" t="s">
         <v>47</v>
       </c>
       <c r="AA8">
-        <v>0.6363588516746411</v>
+        <v>0.9122222222222222</v>
       </c>
       <c r="AB8">
-        <v>0.1108183969750727</v>
+        <v>0.04042978977480057</v>
       </c>
     </row>
     <row r="9" spans="1:28">
@@ -1202,16 +1202,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.006655406951904297</v>
+        <v>0.005379581451416015</v>
       </c>
       <c r="C9">
-        <v>0.002784256884483839</v>
+        <v>0.003557956112616052</v>
       </c>
       <c r="D9">
-        <v>0.002404594421386719</v>
+        <v>0.002059173583984375</v>
       </c>
       <c r="E9">
-        <v>0.0003280939945072374</v>
+        <v>0.001121283539705312</v>
       </c>
       <c r="F9">
         <v>0.01</v>
@@ -1247,37 +1247,37 @@
         <v>38</v>
       </c>
       <c r="R9">
-        <v>0.7027027027027027</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="S9">
-        <v>0.6486486486486486</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="T9">
-        <v>0.6666666666666667</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="U9">
-        <v>0.7096774193548387</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="V9">
-        <v>0.7</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="W9">
-        <v>0.6855390874745714</v>
+        <v>0.655186918344813</v>
       </c>
       <c r="X9">
-        <v>0.02367884916396554</v>
+        <v>0.07833443799664203</v>
       </c>
       <c r="Y9">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="Z9" t="s">
         <v>47</v>
       </c>
       <c r="AA9">
-        <v>0.6363588516746411</v>
+        <v>0.9122222222222222</v>
       </c>
       <c r="AB9">
-        <v>0.1108183969750727</v>
+        <v>0.04042978977480057</v>
       </c>
     </row>
     <row r="10" spans="1:28">
@@ -1285,16 +1285,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.006304311752319336</v>
+        <v>0.002181911468505859</v>
       </c>
       <c r="C10">
-        <v>0.001198952085358894</v>
+        <v>0.0004321050496321802</v>
       </c>
       <c r="D10">
-        <v>0.002378988265991211</v>
+        <v>0.001050710678100586</v>
       </c>
       <c r="E10">
-        <v>0.0003340169039905747</v>
+        <v>0.00024459919666114</v>
       </c>
       <c r="F10">
         <v>0.1</v>
@@ -1333,37 +1333,37 @@
         <v>39</v>
       </c>
       <c r="R10">
-        <v>0.6285714285714286</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="S10">
-        <v>0.6470588235294117</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="T10">
-        <v>0.625</v>
+        <v>0.7272727272727272</v>
       </c>
       <c r="U10">
-        <v>0.6206896551724138</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="V10">
-        <v>0.631578947368421</v>
+        <v>0.8333333333333333</v>
       </c>
       <c r="W10">
-        <v>0.6305797709283351</v>
+        <v>0.7311688311688311</v>
       </c>
       <c r="X10">
-        <v>0.00900598912378016</v>
+        <v>0.05510603165703743</v>
       </c>
       <c r="Y10">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="Z10" t="s">
         <v>47</v>
       </c>
       <c r="AA10">
-        <v>0.6363588516746411</v>
+        <v>0.9122222222222222</v>
       </c>
       <c r="AB10">
-        <v>0.1108183969750727</v>
+        <v>0.04042978977480057</v>
       </c>
     </row>
     <row r="11" spans="1:28">
@@ -1371,16 +1371,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.008935070037841797</v>
+        <v>0.003284883499145508</v>
       </c>
       <c r="C11">
-        <v>0.002378687854715014</v>
+        <v>0.001472910011109774</v>
       </c>
       <c r="D11">
-        <v>0.002598476409912109</v>
+        <v>0.001618099212646484</v>
       </c>
       <c r="E11">
-        <v>0.000436505454494931</v>
+        <v>0.001365424167512154</v>
       </c>
       <c r="F11">
         <v>0.1</v>
@@ -1419,37 +1419,37 @@
         <v>40</v>
       </c>
       <c r="R11">
-        <v>0.6285714285714286</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="S11">
-        <v>0.6285714285714286</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="T11">
-        <v>0.6060606060606061</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="U11">
-        <v>0.6206896551724138</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="V11">
-        <v>0.6666666666666667</v>
+        <v>0.8333333333333333</v>
       </c>
       <c r="W11">
-        <v>0.6301119570085086</v>
+        <v>0.6782638414217361</v>
       </c>
       <c r="X11">
-        <v>0.02004116018713882</v>
+        <v>0.09518025586929175</v>
       </c>
       <c r="Y11">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="Z11" t="s">
         <v>47</v>
       </c>
       <c r="AA11">
-        <v>0.6363588516746411</v>
+        <v>0.9122222222222222</v>
       </c>
       <c r="AB11">
-        <v>0.1108183969750727</v>
+        <v>0.04042978977480057</v>
       </c>
     </row>
     <row r="12" spans="1:28">
@@ -1457,16 +1457,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.00613560676574707</v>
+        <v>0.002515602111816406</v>
       </c>
       <c r="C12">
-        <v>0.001758981186497152</v>
+        <v>0.001935222175505798</v>
       </c>
       <c r="D12">
-        <v>0.003790855407714844</v>
+        <v>0.001060914993286133</v>
       </c>
       <c r="E12">
-        <v>0.001493128158512275</v>
+        <v>0.0004978108999324295</v>
       </c>
       <c r="F12">
         <v>0.1</v>
@@ -1502,37 +1502,37 @@
         <v>41</v>
       </c>
       <c r="R12">
-        <v>0.7027027027027027</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="S12">
-        <v>0.6486486486486486</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="T12">
-        <v>0.6842105263157895</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="U12">
-        <v>0.7499999999999999</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="V12">
-        <v>0.6829268292682926</v>
+        <v>0.8333333333333333</v>
       </c>
       <c r="W12">
-        <v>0.6936977413870867</v>
+        <v>0.7197802197802197</v>
       </c>
       <c r="X12">
-        <v>0.03312544100067901</v>
+        <v>0.07627496020407541</v>
       </c>
       <c r="Y12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z12" t="s">
         <v>47</v>
       </c>
       <c r="AA12">
-        <v>0.6363588516746411</v>
+        <v>0.9122222222222222</v>
       </c>
       <c r="AB12">
-        <v>0.1108183969750727</v>
+        <v>0.04042978977480057</v>
       </c>
     </row>
     <row r="13" spans="1:28">
@@ -1540,16 +1540,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.008073854446411132</v>
+        <v>0.002635431289672851</v>
       </c>
       <c r="C13">
-        <v>0.003728808982457988</v>
+        <v>0.00131784017253092</v>
       </c>
       <c r="D13">
-        <v>0.002487897872924805</v>
+        <v>0.001261329650878906</v>
       </c>
       <c r="E13">
-        <v>9.449391863427502E-05</v>
+        <v>0.0008032713566599642</v>
       </c>
       <c r="F13">
         <v>0.1</v>
@@ -1585,37 +1585,37 @@
         <v>42</v>
       </c>
       <c r="R13">
-        <v>0.7027027027027027</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="S13">
-        <v>0.6486486486486486</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="T13">
-        <v>0.6666666666666667</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="U13">
-        <v>0.7096774193548387</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="V13">
-        <v>0.7</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="W13">
-        <v>0.6855390874745714</v>
+        <v>0.655186918344813</v>
       </c>
       <c r="X13">
-        <v>0.02367884916396554</v>
+        <v>0.07833443799664203</v>
       </c>
       <c r="Y13">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="Z13" t="s">
         <v>47</v>
       </c>
       <c r="AA13">
-        <v>0.6363588516746411</v>
+        <v>0.9122222222222222</v>
       </c>
       <c r="AB13">
-        <v>0.1108183969750727</v>
+        <v>0.04042978977480057</v>
       </c>
     </row>
     <row r="14" spans="1:28">
@@ -1623,16 +1623,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.007882785797119141</v>
+        <v>0.001955270767211914</v>
       </c>
       <c r="C14">
-        <v>0.001670239666324039</v>
+        <v>0.0006895449965314388</v>
       </c>
       <c r="D14">
-        <v>0.003058385848999023</v>
+        <v>0.0007240772247314453</v>
       </c>
       <c r="E14">
-        <v>0.0006707842620447053</v>
+        <v>0.0001785737650012585</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -1671,37 +1671,37 @@
         <v>43</v>
       </c>
       <c r="R14">
-        <v>0.6285714285714286</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="S14">
-        <v>0.6285714285714286</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="T14">
-        <v>0.6060606060606061</v>
+        <v>0.5</v>
       </c>
       <c r="U14">
-        <v>0.6206896551724138</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="V14">
-        <v>0.631578947368421</v>
+        <v>0.8333333333333333</v>
       </c>
       <c r="W14">
-        <v>0.6230944131488595</v>
+        <v>0.6761904761904761</v>
       </c>
       <c r="X14">
-        <v>0.009251120598566864</v>
+        <v>0.1071163988495428</v>
       </c>
       <c r="Y14">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="Z14" t="s">
         <v>47</v>
       </c>
       <c r="AA14">
-        <v>0.6363588516746411</v>
+        <v>0.9122222222222222</v>
       </c>
       <c r="AB14">
-        <v>0.1108183969750727</v>
+        <v>0.04042978977480057</v>
       </c>
     </row>
     <row r="15" spans="1:28">
@@ -1709,16 +1709,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.008284187316894532</v>
+        <v>0.001493453979492188</v>
       </c>
       <c r="C15">
-        <v>0.004793751660951385</v>
+        <v>0.0001233615605554681</v>
       </c>
       <c r="D15">
-        <v>0.002813243865966797</v>
+        <v>0.0006273269653320312</v>
       </c>
       <c r="E15">
-        <v>0.0007592773553690725</v>
+        <v>1.941342221232967E-05</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -1757,37 +1757,37 @@
         <v>44</v>
       </c>
       <c r="R15">
-        <v>0.6285714285714286</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="S15">
-        <v>0.6285714285714286</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="T15">
-        <v>0.6060606060606061</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="U15">
-        <v>0.6206896551724138</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="V15">
-        <v>0.6666666666666667</v>
+        <v>0.8333333333333333</v>
       </c>
       <c r="W15">
-        <v>0.6301119570085086</v>
+        <v>0.6782638414217361</v>
       </c>
       <c r="X15">
-        <v>0.02004116018713882</v>
+        <v>0.09518025586929175</v>
       </c>
       <c r="Y15">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="Z15" t="s">
         <v>47</v>
       </c>
       <c r="AA15">
-        <v>0.6363588516746411</v>
+        <v>0.9122222222222222</v>
       </c>
       <c r="AB15">
-        <v>0.1108183969750727</v>
+        <v>0.04042978977480057</v>
       </c>
     </row>
     <row r="16" spans="1:28">
@@ -1795,16 +1795,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.005081796646118164</v>
+        <v>0.001235294342041016</v>
       </c>
       <c r="C16">
-        <v>0.0007914350409389592</v>
+        <v>3.557070967363416E-05</v>
       </c>
       <c r="D16">
-        <v>0.002221012115478516</v>
+        <v>0.0006069660186767579</v>
       </c>
       <c r="E16">
-        <v>0.0001737204611568459</v>
+        <v>1.560095757129841E-05</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -1840,37 +1840,37 @@
         <v>45</v>
       </c>
       <c r="R16">
-        <v>0.7027027027027027</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="S16">
-        <v>0.6486486486486486</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="T16">
-        <v>0.6666666666666667</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="U16">
-        <v>0.7096774193548387</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="V16">
-        <v>0.7</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="W16">
-        <v>0.6855390874745714</v>
+        <v>0.6724608724608724</v>
       </c>
       <c r="X16">
-        <v>0.02367884916396554</v>
+        <v>0.07390735153655395</v>
       </c>
       <c r="Y16">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="Z16" t="s">
         <v>47</v>
       </c>
       <c r="AA16">
-        <v>0.6363588516746411</v>
+        <v>0.9122222222222222</v>
       </c>
       <c r="AB16">
-        <v>0.1108183969750727</v>
+        <v>0.04042978977480057</v>
       </c>
     </row>
     <row r="17" spans="1:28">
@@ -1878,16 +1878,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.005910062789916992</v>
+        <v>0.001333189010620117</v>
       </c>
       <c r="C17">
-        <v>0.0004874244405178236</v>
+        <v>9.667294516678391E-05</v>
       </c>
       <c r="D17">
-        <v>0.002845048904418945</v>
+        <v>0.0005974292755126954</v>
       </c>
       <c r="E17">
-        <v>0.0007286002342282728</v>
+        <v>2.888838340797755E-05</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -1923,37 +1923,37 @@
         <v>46</v>
       </c>
       <c r="R17">
-        <v>0.7027027027027027</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="S17">
-        <v>0.6486486486486486</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="T17">
-        <v>0.6666666666666667</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="U17">
-        <v>0.7096774193548387</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="V17">
-        <v>0.7</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="W17">
-        <v>0.6855390874745714</v>
+        <v>0.655186918344813</v>
       </c>
       <c r="X17">
-        <v>0.02367884916396554</v>
+        <v>0.07833443799664203</v>
       </c>
       <c r="Y17">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="Z17" t="s">
         <v>47</v>
       </c>
       <c r="AA17">
-        <v>0.6363588516746411</v>
+        <v>0.9122222222222222</v>
       </c>
       <c r="AB17">
-        <v>0.1108183969750727</v>
+        <v>0.04042978977480057</v>
       </c>
     </row>
   </sheetData>
